--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42B196-019C-47EB-B68C-4B51747EF497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B455A-D0AA-406D-8F07-ACCCF93416FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>choiceLoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -712,10 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{당고를 산다.}{}{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(음식을 사서 돌아가니, 일행들은 무언가에 기웃거리고 있었다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -920,6 +912,53 @@
   </si>
   <si>
     <t>(나는 자리에 서서 새총을 들었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PLAYER_NAME}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 인원수 만큼 당고를 구매했다.)</t>
+  </si>
+  <si>
+    <t>(나는 인원수 만큼 야키토리를 구매했다.)</t>
+  </si>
+  <si>
+    <t>(나는 인원수 만큼 푸딩을 구매했다.)</t>
+  </si>
+  <si>
+    <t>BackGround_Festival</t>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}{1}{1}</t>
+  </si>
+  <si>
+    <t>{2}{3}{4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{당고를 산다.}{야키토리를 산다.}{푸딩을 산다.}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA03}{MI00}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI04}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,11 +1194,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1170,6 +1247,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1191,6 +1275,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1198,6 +1289,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
@@ -1205,6 +1303,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
@@ -1219,6 +1324,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1352,6 +1527,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1359,6 +1576,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1387,6 +1611,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
@@ -1394,6 +1632,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1401,13 +1653,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -1415,112 +1660,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1877,7 +2017,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:R2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1886,10 +2026,10 @@
     <col min="3" max="3" width="9.8984375" customWidth="1"/>
     <col min="4" max="4" width="7.296875" customWidth="1"/>
     <col min="5" max="5" width="18.296875" customWidth="1"/>
-    <col min="6" max="6" width="86.69921875" customWidth="1"/>
+    <col min="6" max="6" width="72.5" customWidth="1"/>
     <col min="7" max="7" width="24.3984375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" customWidth="1"/>
     <col min="10" max="10" width="13.796875" customWidth="1"/>
     <col min="11" max="11" width="12.796875" customWidth="1"/>
     <col min="12" max="12" width="14.19921875" customWidth="1"/>
@@ -1963,231 +2103,462 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="31.2" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.2" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.2" customHeight="1">
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="5:6">
+    <row r="30" spans="1:7">
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="5:6">
+    <row r="31" spans="1:7">
       <c r="E31" s="1"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="5:6">
+    <row r="32" spans="1:7">
       <c r="E32" s="1"/>
       <c r="F32" s="7"/>
     </row>
@@ -2334,56 +2705,52 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="16" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="69" priority="16" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E28">
+    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E67">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E67">
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E28">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2394,18 +2761,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DC7F1-5C60-420E-8CE5-E5358336FABA}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.296875" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" customWidth="1"/>
     <col min="6" max="6" width="69.8984375" customWidth="1"/>
-    <col min="7" max="7" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="10.296875" customWidth="1"/>
-    <col min="11" max="11" width="12.296875" customWidth="1"/>
-    <col min="12" max="12" width="21.19921875" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2467,286 +2837,648 @@
       </c>
     </row>
     <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.2">
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="26.4">
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="26.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="5:6" ht="26.4">
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12">
+      <c r="G32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
+        <v>111</v>
+      </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="M33" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="53" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E32">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="나레이션">
+  <conditionalFormatting sqref="E3:E33">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A33">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2755,13 +3487,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08063B42-9FFB-4627-AE34-3D3DC97935FA}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="33.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -2813,25 +3550,73 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2840,13 +3625,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFCA4D8-53B5-40C3-B1B4-7A126FDAA54C}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="36.296875" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -2898,25 +3688,73 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2925,13 +3763,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDC7567-CEFB-4428-8A63-E09991D123C9}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="13.296875" customWidth="1"/>
+    <col min="6" max="6" width="33.09765625" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -2983,25 +3826,73 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3010,16 +3901,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3077775-3632-4DC2-AD34-ED15BB71D914}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="14.09765625" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3072,298 +3965,726 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.4">
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="26.4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="5:6" ht="26.4">
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="G32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="C34" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E32">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="사사키">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="사사키">
       <formula>NOT(ISERROR(SEARCH("사사키",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B455A-D0AA-406D-8F07-ACCCF93416FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0A6C5-9713-47BF-91F7-26EFE8230AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_Road" sheetId="2" r:id="rId1"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(하지만 언제까지고 이렇게 두려워 할 수는 없지.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>(</t>
     </r>
@@ -831,9 +827,6 @@
     <t>(그 말에 나는 히나를 돌아보았다.)</t>
   </si>
   <si>
-    <t>(히나의 사격 실력은 형편 없었다.)</t>
-  </si>
-  <si>
     <t>(전생에 사냥꾼이었다면 아주 벌어먹고 살지 못할 정도.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,9 +861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(히나 보다는 낫지만, 역시 아야카도 형편 없었다.)</t>
-  </si>
-  <si>
     <t>(시간을 다 소진하고 나서야 아야카는 자리에서 물러났다.)</t>
   </si>
   <si>
@@ -919,15 +909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(나는 인원수 만큼 당고를 구매했다.)</t>
-  </si>
-  <si>
-    <t>(나는 인원수 만큼 야키토리를 구매했다.)</t>
-  </si>
-  <si>
-    <t>(나는 인원수 만큼 푸딩을 구매했다.)</t>
-  </si>
-  <si>
     <t>BackGround_Festival</t>
   </si>
   <si>
@@ -959,6 +940,30 @@
   </si>
   <si>
     <t>{SA00}{MI00}{KI04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하지만 언제까지고 이렇게 두려워할 수는 없지.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 인원 수만큼 당고를 구매했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 인원 수만큼 야키토리를 구매했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 인원 수만큼 푸딩을 구매했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(히나의 사격 실력은 형편없었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(히나보다는 낫지만, 역시 아야카도 형편없었다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,14 +1199,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1212,6 +1228,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1254,6 +1326,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1261,6 +1354,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
@@ -1289,6 +1396,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1296,6 +1424,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
@@ -1324,62 +1466,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1387,13 +1473,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1402,125 +1481,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1718,9 +1678,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1758,7 +1718,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1864,7 +1824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2006,7 +1966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2017,24 +1977,24 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="72.5" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15.796875" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2095,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+    <row r="3" spans="1:16" ht="25.85" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2129,7 +2089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+    <row r="5" spans="1:16" ht="25.85" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2197,7 +2157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
+    <row r="9" spans="1:16" ht="29.95" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2205,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
@@ -2463,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -2480,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -2497,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -2514,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -2531,7 +2491,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -2705,51 +2665,51 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="16" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="63" priority="16" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="61" priority="12" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E28">
-    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="59" priority="2" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E67">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E67">
-    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="52" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2761,21 +2721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DC7F1-5C60-420E-8CE5-E5358336FABA}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="69.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="69.875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
     <col min="12" max="12" width="39.5" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="15.19921875" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2847,10 +2807,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2864,10 +2824,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2881,10 +2841,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2898,10 +2858,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2915,10 +2875,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2932,10 +2892,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2946,13 +2906,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2966,10 +2926,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2983,13 +2943,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3003,13 +2963,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3023,13 +2983,13 @@
         <v>13</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3043,13 +3003,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3063,13 +3023,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3083,13 +3043,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3103,13 +3063,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3123,13 +3083,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3140,16 +3100,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3160,16 +3120,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3180,16 +3140,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3203,13 +3163,13 @@
         <v>13</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3223,13 +3183,13 @@
         <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3243,13 +3203,13 @@
         <v>13</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3263,33 +3223,33 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="26.4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3303,13 +3263,13 @@
         <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3323,13 +3283,13 @@
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3343,13 +3303,13 @@
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3363,13 +3323,13 @@
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3383,13 +3343,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3403,13 +3363,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3423,62 +3383,54 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1:A33">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="containsText" dxfId="55" priority="8" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E33">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A33">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3490,14 +3442,14 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="33.3984375" customWidth="1"/>
-    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3564,10 +3516,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3584,38 +3536,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3628,14 +3580,14 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="36.296875" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
+    <col min="6" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3702,10 +3654,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3722,38 +3674,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3766,14 +3718,14 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="13.296875" customWidth="1"/>
-    <col min="6" max="6" width="33.09765625" customWidth="1"/>
-    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3840,10 +3792,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3860,38 +3812,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3901,18 +3853,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3077775-3632-4DC2-AD34-ED15BB71D914}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
-    <col min="7" max="7" width="19.296875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3976,13 +3928,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3996,13 +3948,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4016,13 +3968,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4036,13 +3988,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4056,13 +4008,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4073,16 +4025,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4096,13 +4048,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4116,13 +4068,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4139,10 +4091,10 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4156,13 +4108,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4176,13 +4128,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4193,16 +4145,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
         <v>109</v>
-      </c>
-      <c r="H13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4213,16 +4165,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
         <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4236,13 +4188,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4253,16 +4205,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4276,13 +4228,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4296,20 +4248,19 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="C19" s="16"/>
       <c r="D19">
         <v>0</v>
       </c>
@@ -4317,20 +4268,19 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="C20" s="16"/>
       <c r="D20">
         <v>0</v>
       </c>
@@ -4338,20 +4288,19 @@
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="C21" s="16"/>
       <c r="D21">
         <v>0</v>
       </c>
@@ -4359,43 +4308,43 @@
         <v>13</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22">
         <v>12</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23">
         <v>12</v>
       </c>
       <c r="D23">
@@ -4405,43 +4354,43 @@
         <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24">
         <v>12</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="26.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24.25">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25">
         <v>12</v>
       </c>
       <c r="D25">
@@ -4451,89 +4400,89 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26">
         <v>12</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27">
         <v>12</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28">
         <v>12</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29">
         <v>12</v>
       </c>
       <c r="D29">
@@ -4543,20 +4492,20 @@
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30">
         <v>12</v>
       </c>
       <c r="D30">
@@ -4566,20 +4515,20 @@
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31">
         <v>12</v>
       </c>
       <c r="D31">
@@ -4589,20 +4538,20 @@
         <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32">
         <v>12</v>
       </c>
       <c r="D32">
@@ -4612,79 +4561,67 @@
         <v>13</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="C33" s="16"/>
       <c r="P33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="C34" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1:A33">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="사사키">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="사사키">
       <formula>NOT(ISERROR(SEARCH("사사키",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenu0\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0A6C5-9713-47BF-91F7-26EFE8230AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1407D5B8-5397-4388-A7FA-00AEC1ABA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_Road" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="119">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -964,6 +964,10 @@
   </si>
   <si>
     <t>(히나보다는 낫지만, 역시 아야카도 형편없었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI01}{KI00}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1976,11 +1980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
@@ -2055,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.85" customHeight="1">
+    <row r="3" spans="1:16" ht="25.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="31.2" customHeight="1">
+    <row r="4" spans="1:16" ht="31.15" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.85" customHeight="1">
+    <row r="5" spans="1:16" ht="25.9" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.2" customHeight="1">
+    <row r="8" spans="1:16" ht="28.15" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="29.95" customHeight="1">
+    <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2721,11 +2725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DC7F1-5C60-420E-8CE5-E5358336FABA}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="69.875" customWidth="1"/>
@@ -3109,7 +3113,7 @@
         <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3129,7 +3133,7 @@
         <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3149,7 +3153,7 @@
         <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3169,7 +3173,7 @@
         <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3232,7 +3236,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24.25">
+    <row r="26" spans="1:8" ht="24">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3441,11 +3445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08063B42-9FFB-4627-AE34-3D3DC97935FA}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="33.375" customWidth="1"/>
@@ -3579,11 +3583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFCA4D8-53B5-40C3-B1B4-7A126FDAA54C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="36.25" customWidth="1"/>
@@ -3721,7 +3725,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="33.125" customWidth="1"/>
@@ -3855,11 +3859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3077775-3632-4DC2-AD34-ED15BB71D914}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
@@ -3934,7 +3938,7 @@
         <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3954,7 +3958,7 @@
         <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3974,7 +3978,7 @@
         <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3994,7 +3998,7 @@
         <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4014,7 +4018,7 @@
         <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4034,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4386,7 +4390,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24.25">
+    <row r="25" spans="1:8" ht="24">
       <c r="A25">
         <v>1</v>
       </c>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Be.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenu0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1407D5B8-5397-4388-A7FA-00AEC1ABA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72777CFF-20ED-4F8B-A9E7-9705CBDCC7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_Road" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="125">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,6 +969,28 @@
   <si>
     <t>{SA00}{MI01}{KI00}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm</t>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
@@ -1682,9 +1704,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1722,7 +1744,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1828,7 +1850,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1970,7 +1992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1978,30 +2000,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="72.5" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" customWidth="1"/>
+    <col min="12" max="12" width="13.69921875" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2024,34 +2047,40 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2059,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.9" customHeight="1">
+    <row r="3" spans="1:18" ht="25.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2076,7 +2105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="31.15" customHeight="1">
+    <row r="4" spans="1:18" ht="31.2" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2093,7 +2122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.9" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2127,7 +2156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2144,7 +2173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.15" customHeight="1">
+    <row r="8" spans="1:18" ht="28.2" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2161,7 +2190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
+    <row r="9" spans="1:18" ht="30" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2178,7 +2207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2195,7 +2224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2212,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2229,7 +2258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2246,7 +2275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2263,7 +2292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2280,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2723,26 +2752,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DC7F1-5C60-420E-8CE5-E5358336FABA}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="69.875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="69.8984375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="39.5" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" customWidth="1"/>
+    <col min="14" max="14" width="39.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2768,31 +2798,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2800,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2817,7 +2853,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2834,7 +2870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2851,7 +2887,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2885,7 +2921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2902,7 +2938,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2919,7 +2955,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2936,7 +2972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2955,8 +2991,11 @@
       <c r="H11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2976,7 +3015,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2996,7 +3035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3016,7 +3055,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3036,7 +3075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3056,7 +3095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3076,7 +3115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3096,7 +3135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3115,8 +3154,11 @@
       <c r="H19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3136,7 +3178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3156,7 +3198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3176,7 +3218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3196,7 +3238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3216,7 +3258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3236,7 +3278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3256,7 +3298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3276,7 +3318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3296,7 +3338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3316,7 +3358,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3336,7 +3378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3356,7 +3398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3376,7 +3418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3389,13 +3431,13 @@
       <c r="G33" t="s">
         <v>103</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>105</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>107</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3443,20 +3485,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08063B42-9FFB-4627-AE34-3D3DC97935FA}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="33.375" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="33.3984375" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3482,31 +3525,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3526,7 +3575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3581,20 +3630,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFCA4D8-53B5-40C3-B1B4-7A126FDAA54C}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="36.25" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="36.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="10" max="10" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3620,31 +3670,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3664,7 +3720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3719,20 +3775,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDC7567-CEFB-4428-8A63-E09991D123C9}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="33.125" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="33.09765625" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3758,31 +3815,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3802,7 +3865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3857,21 +3920,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3077775-3632-4DC2-AD34-ED15BB71D914}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3897,31 +3961,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3941,7 +4011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3961,7 +4031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3981,7 +4051,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4001,7 +4071,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4021,7 +4091,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4041,7 +4111,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4061,7 +4131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4081,7 +4151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4101,7 +4171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4121,7 +4191,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4141,7 +4211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4160,8 +4230,11 @@
       <c r="H13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4181,7 +4254,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4201,7 +4274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4221,7 +4294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4241,7 +4314,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4261,7 +4334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4281,7 +4354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4301,7 +4374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4321,7 +4394,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4343,8 +4416,11 @@
       <c r="H22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4367,7 +4443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4390,7 +4466,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4413,7 +4489,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4436,7 +4512,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4459,7 +4535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4482,7 +4558,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4505,7 +4581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4528,7 +4604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4551,7 +4627,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4574,11 +4650,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>3</v>
       </c>
     </row>
